--- a/API/wwwroot/Download/CA.xlsx
+++ b/API/wwwroot/Download/CA.xlsx
@@ -494,18 +494,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="33" width="20.7109375" customWidth="1"/>
+    <col min="1" max="28" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="6" customFormat="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:26" s="6" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,16 +572,16 @@
       <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="Z1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
